--- a/up/УП.xlsx
+++ b/up/УП.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignat\ejd_check\UP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignatov.ai\PycharmProjects\EJD_MARK_CHECK\up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A8339-1F88-4553-83DB-950DEE9163CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F075B-0132-41F2-80B3-E8C44F0134F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УП" sheetId="11" r:id="rId1"/>
@@ -25,153 +25,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>5 я</t>
-  </si>
-  <si>
-    <t>5 а-з</t>
-  </si>
-  <si>
-    <t>6 я</t>
-  </si>
-  <si>
-    <t>6 ю</t>
-  </si>
-  <si>
-    <t>6 а-з</t>
-  </si>
-  <si>
-    <t>6 б-з</t>
-  </si>
-  <si>
-    <t>6 в-з</t>
-  </si>
-  <si>
-    <t>6 д-з</t>
-  </si>
-  <si>
-    <t>6 е-з</t>
-  </si>
-  <si>
-    <t>6 з-з</t>
-  </si>
-  <si>
-    <t>7 я</t>
-  </si>
-  <si>
-    <t>7 ю</t>
-  </si>
-  <si>
-    <t>7 ц</t>
-  </si>
-  <si>
-    <t>7 в-з</t>
-  </si>
-  <si>
-    <t>7 д-з</t>
-  </si>
-  <si>
-    <t>7 ч</t>
-  </si>
-  <si>
-    <t>7 ш</t>
-  </si>
-  <si>
-    <t>7 э</t>
-  </si>
-  <si>
-    <t>8 я</t>
-  </si>
-  <si>
-    <t>8 ю</t>
-  </si>
-  <si>
-    <t>8 ц</t>
-  </si>
-  <si>
-    <t>8 а-з</t>
-  </si>
-  <si>
-    <t>8 б-з</t>
-  </si>
-  <si>
-    <t>8 ш</t>
-  </si>
-  <si>
-    <t>8 э</t>
-  </si>
-  <si>
-    <t>8 ч</t>
-  </si>
-  <si>
-    <t>9 я</t>
-  </si>
-  <si>
-    <t>9 ц</t>
-  </si>
-  <si>
-    <t>9 ч</t>
-  </si>
-  <si>
-    <t>9 э</t>
-  </si>
-  <si>
-    <t>9 ш</t>
-  </si>
-  <si>
-    <t>9 а-з</t>
-  </si>
-  <si>
-    <t>9 б-з</t>
-  </si>
-  <si>
-    <t>5 б-з</t>
-  </si>
-  <si>
-    <t>5 в-з</t>
-  </si>
-  <si>
-    <t>5 д-з</t>
-  </si>
-  <si>
-    <t>5 е-з</t>
-  </si>
-  <si>
-    <t>5 з-з</t>
-  </si>
-  <si>
-    <t>7 а-з</t>
-  </si>
-  <si>
-    <t>7 б-з</t>
-  </si>
-  <si>
-    <t>10 ц</t>
-  </si>
-  <si>
-    <t>10 ч</t>
-  </si>
-  <si>
-    <t>10 ш</t>
-  </si>
-  <si>
-    <t>10 у</t>
-  </si>
-  <si>
-    <t>11 ц</t>
-  </si>
-  <si>
-    <t>11 ч</t>
-  </si>
-  <si>
-    <t>11 я</t>
-  </si>
-  <si>
-    <t>11 ш</t>
-  </si>
-  <si>
-    <t>11 у</t>
-  </si>
-  <si>
     <t>русский язык</t>
   </si>
   <si>
@@ -364,9 +217,6 @@
     <t>технология</t>
   </si>
   <si>
-    <t>5 ю</t>
-  </si>
-  <si>
     <t>китайский язык</t>
   </si>
   <si>
@@ -401,6 +251,156 @@
   </si>
   <si>
     <t>многовариантные задачи: планиметрические задачи с неоднозначностью в условии</t>
+  </si>
+  <si>
+    <t>5-я</t>
+  </si>
+  <si>
+    <t>5-ю</t>
+  </si>
+  <si>
+    <t>5-а-з</t>
+  </si>
+  <si>
+    <t>5-б-з</t>
+  </si>
+  <si>
+    <t>5-в-з</t>
+  </si>
+  <si>
+    <t>5-д-з</t>
+  </si>
+  <si>
+    <t>5-е-з</t>
+  </si>
+  <si>
+    <t>5-з-з</t>
+  </si>
+  <si>
+    <t>6-я</t>
+  </si>
+  <si>
+    <t>6-ю</t>
+  </si>
+  <si>
+    <t>6-а-з</t>
+  </si>
+  <si>
+    <t>6-б-з</t>
+  </si>
+  <si>
+    <t>6-в-з</t>
+  </si>
+  <si>
+    <t>6-д-з</t>
+  </si>
+  <si>
+    <t>6-е-з</t>
+  </si>
+  <si>
+    <t>6-з-з</t>
+  </si>
+  <si>
+    <t>7-я</t>
+  </si>
+  <si>
+    <t>7-ю</t>
+  </si>
+  <si>
+    <t>7-ц</t>
+  </si>
+  <si>
+    <t>7-а-з</t>
+  </si>
+  <si>
+    <t>7-б-з</t>
+  </si>
+  <si>
+    <t>7-в-з</t>
+  </si>
+  <si>
+    <t>7-д-з</t>
+  </si>
+  <si>
+    <t>7-ч</t>
+  </si>
+  <si>
+    <t>7-ш</t>
+  </si>
+  <si>
+    <t>7-э</t>
+  </si>
+  <si>
+    <t>8-я</t>
+  </si>
+  <si>
+    <t>8-ю</t>
+  </si>
+  <si>
+    <t>8-ц</t>
+  </si>
+  <si>
+    <t>8-а-з</t>
+  </si>
+  <si>
+    <t>8-б-з</t>
+  </si>
+  <si>
+    <t>8-ш</t>
+  </si>
+  <si>
+    <t>8-э</t>
+  </si>
+  <si>
+    <t>8-ч</t>
+  </si>
+  <si>
+    <t>9-я</t>
+  </si>
+  <si>
+    <t>9-ц</t>
+  </si>
+  <si>
+    <t>9-ч</t>
+  </si>
+  <si>
+    <t>9-э</t>
+  </si>
+  <si>
+    <t>9-ш</t>
+  </si>
+  <si>
+    <t>9-а-з</t>
+  </si>
+  <si>
+    <t>9-б-з</t>
+  </si>
+  <si>
+    <t>10-ц</t>
+  </si>
+  <si>
+    <t>10-ч</t>
+  </si>
+  <si>
+    <t>10-ш</t>
+  </si>
+  <si>
+    <t>10-у</t>
+  </si>
+  <si>
+    <t>11-ц</t>
+  </si>
+  <si>
+    <t>11-ч</t>
+  </si>
+  <si>
+    <t>11-я</t>
+  </si>
+  <si>
+    <t>11-ш</t>
+  </si>
+  <si>
+    <t>11-у</t>
   </si>
 </sst>
 </file>
@@ -736,171 +736,171 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="AB25" sqref="AB25"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="51" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="76.5703125" customWidth="1"/>
+    <col min="2" max="51" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="AN1" s="4" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AS1" s="6" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>5</v>
@@ -1053,9 +1053,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -1208,9 +1208,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -1363,9 +1363,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>5</v>
@@ -1450,9 +1450,9 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
@@ -1597,9 +1597,9 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -1702,9 +1702,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -1847,9 +1847,9 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1998,9 +1998,9 @@
       </c>
       <c r="AY9" s="7"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -2069,9 +2069,9 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -2154,9 +2154,9 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -2239,9 +2239,9 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
@@ -2320,9 +2320,9 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
@@ -2475,9 +2475,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
@@ -2536,9 +2536,9 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7">
@@ -2617,9 +2617,9 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7">
@@ -2680,9 +2680,9 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2785,9 +2785,9 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2908,9 +2908,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3004,9 +3004,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3143,9 +3143,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3240,9 +3240,9 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3363,9 +3363,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3419,9 +3419,9 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3482,9 +3482,9 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3541,9 +3541,9 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3602,9 +3602,9 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3663,9 +3663,9 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3726,9 +3726,9 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3795,9 +3795,9 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3856,9 +3856,9 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3929,9 +3929,9 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4002,9 +4002,9 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -4061,9 +4061,9 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4118,9 +4118,9 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4195,9 +4195,9 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -4274,9 +4274,9 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -4331,9 +4331,9 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4392,9 +4392,9 @@
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4451,9 +4451,9 @@
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4514,9 +4514,9 @@
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
     </row>
-    <row r="42" spans="1:51" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4573,9 +4573,9 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4630,9 +4630,9 @@
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4687,9 +4687,9 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4756,9 +4756,9 @@
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4813,9 +4813,9 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4870,9 +4870,9 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4927,9 +4927,9 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4986,9 +4986,9 @@
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -5047,9 +5047,9 @@
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -5108,9 +5108,9 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -5171,9 +5171,9 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -5232,9 +5232,9 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -5291,9 +5291,9 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -5354,9 +5354,9 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -5417,9 +5417,9 @@
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -5480,9 +5480,9 @@
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -5543,9 +5543,9 @@
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -5606,9 +5606,9 @@
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -5665,9 +5665,9 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -5722,9 +5722,9 @@
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -5779,9 +5779,9 @@
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -5852,9 +5852,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5917,9 +5917,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -5976,9 +5976,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -6035,9 +6035,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6100,9 +6100,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6157,9 +6157,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6214,9 +6214,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -6271,9 +6271,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -6328,9 +6328,9 @@
       <c r="AX71" s="7"/>
       <c r="AY71" s="7"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6385,9 +6385,9 @@
       <c r="AX72" s="7"/>
       <c r="AY72" s="7"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6442,9 +6442,9 @@
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6499,9 +6499,9 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6560,9 +6560,9 @@
       <c r="AX75" s="7"/>
       <c r="AY75" s="7"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6619,9 +6619,9 @@
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6686,7 +6686,7 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
     </row>
-    <row r="78" spans="1:51" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
   </sheetData>

--- a/up/УП.xlsx
+++ b/up/УП.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignatov.ai\PycharmProjects\EJD_MARK_CHECK\up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F075B-0132-41F2-80B3-E8C44F0134F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A04C0-170C-4190-B47A-4D8C04659A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="УП" sheetId="11" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -401,6 +402,177 @@
   </si>
   <si>
     <t>11-у</t>
+  </si>
+  <si>
+    <t>5-А-З</t>
+  </si>
+  <si>
+    <t>5-Б-З</t>
+  </si>
+  <si>
+    <t>5-В-З</t>
+  </si>
+  <si>
+    <t>5-Д-З</t>
+  </si>
+  <si>
+    <t>5-Е-З</t>
+  </si>
+  <si>
+    <t>5-З-З</t>
+  </si>
+  <si>
+    <t>5-И-З</t>
+  </si>
+  <si>
+    <t>5-Л-З</t>
+  </si>
+  <si>
+    <t>5-Ф</t>
+  </si>
+  <si>
+    <t>5-Ю</t>
+  </si>
+  <si>
+    <t>5-Я</t>
+  </si>
+  <si>
+    <t>6-А-З</t>
+  </si>
+  <si>
+    <t>6-Б-З</t>
+  </si>
+  <si>
+    <t>6-В-З</t>
+  </si>
+  <si>
+    <t>6-Д-З</t>
+  </si>
+  <si>
+    <t>6-Е-З</t>
+  </si>
+  <si>
+    <t>6-З-З</t>
+  </si>
+  <si>
+    <t>6-Ю</t>
+  </si>
+  <si>
+    <t>6-Я</t>
+  </si>
+  <si>
+    <t>7-А-З</t>
+  </si>
+  <si>
+    <t>7-Б-З</t>
+  </si>
+  <si>
+    <t>7-В-З</t>
+  </si>
+  <si>
+    <t>7-Д-З</t>
+  </si>
+  <si>
+    <t>7-Ц</t>
+  </si>
+  <si>
+    <t>7-Ч</t>
+  </si>
+  <si>
+    <t>7-Ш</t>
+  </si>
+  <si>
+    <t>7-Э</t>
+  </si>
+  <si>
+    <t>7-Ю</t>
+  </si>
+  <si>
+    <t>7-Я</t>
+  </si>
+  <si>
+    <t>8-А-З</t>
+  </si>
+  <si>
+    <t>8-Б-З</t>
+  </si>
+  <si>
+    <t>8-В-З</t>
+  </si>
+  <si>
+    <t>8-Д-З</t>
+  </si>
+  <si>
+    <t>8-Ц</t>
+  </si>
+  <si>
+    <t>8-Ч</t>
+  </si>
+  <si>
+    <t>8-Ш</t>
+  </si>
+  <si>
+    <t>8-Э</t>
+  </si>
+  <si>
+    <t>8-Ю</t>
+  </si>
+  <si>
+    <t>8-Я</t>
+  </si>
+  <si>
+    <t>9-А-З</t>
+  </si>
+  <si>
+    <t>9-Б-З</t>
+  </si>
+  <si>
+    <t>9-Ц</t>
+  </si>
+  <si>
+    <t>9-Ч</t>
+  </si>
+  <si>
+    <t>9-Ш</t>
+  </si>
+  <si>
+    <t>9-Э</t>
+  </si>
+  <si>
+    <t>9-Ю</t>
+  </si>
+  <si>
+    <t>9-Я</t>
+  </si>
+  <si>
+    <t>10-Ф</t>
+  </si>
+  <si>
+    <t>10-Ц</t>
+  </si>
+  <si>
+    <t>10-Ч</t>
+  </si>
+  <si>
+    <t>10-Ш</t>
+  </si>
+  <si>
+    <t>10-Э</t>
+  </si>
+  <si>
+    <t>10-Я</t>
+  </si>
+  <si>
+    <t>11-У</t>
+  </si>
+  <si>
+    <t>11-Ц</t>
+  </si>
+  <si>
+    <t>11-Ч</t>
+  </si>
+  <si>
+    <t>11-Ш</t>
   </si>
 </sst>
 </file>
@@ -733,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102547F4-551D-472D-A698-D45A2638A1BA}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
@@ -6693,4 +6865,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8606332-6D9D-42AF-9EB6-63B4981C7CE7}">
+  <dimension ref="B1:BF1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>